--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/Analisis/Ranking_Estadistico_HLN_DM.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/Analisis/Ranking_Estadistico_HLN_DM.xlsx
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="H2" t="n">
         <v>0.002018666349493251</v>
@@ -520,29 +520,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002343166998705213</v>
+        <v>0.003212793603783612</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001773557864384127</v>
+        <v>0.002468646867616643</v>
       </c>
     </row>
     <row r="4">
@@ -551,29 +551,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003212793603783612</v>
+        <v>0.002343166998705213</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002468646867616643</v>
+        <v>0.001773557864384127</v>
       </c>
     </row>
     <row r="5">
@@ -582,29 +582,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002729303042345392</v>
+        <v>0.01088643503280608</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002276929651970951</v>
+        <v>0.01118631828981691</v>
       </c>
     </row>
     <row r="6">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0.004156318879005842</v>
@@ -644,29 +644,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005958807162095199</v>
+        <v>0.002729303042345392</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005747086362573558</v>
+        <v>0.002276929651970951</v>
       </c>
     </row>
     <row r="8">
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -737,29 +737,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01088643503280608</v>
+        <v>0.005726608455807441</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01118631828981691</v>
+        <v>0.005666169253838035</v>
       </c>
     </row>
   </sheetData>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>-1</v>
       </c>
       <c r="J2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -869,16 +869,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -903,19 +903,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1014,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1048,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1107,28 +1107,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>-1</v>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.59472476627343e-14</v>
+        <v>0.002097018750532698</v>
       </c>
       <c r="D2" t="n">
-        <v>6.542344443971615e-11</v>
+        <v>0.004743526100567941</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8170631409890792</v>
+        <v>0.9130504277383529</v>
       </c>
       <c r="F2" t="n">
-        <v>0.751141612819944</v>
+        <v>0.8917294934277238</v>
       </c>
       <c r="G2" t="n">
-        <v>9.768630349071827e-12</v>
+        <v>0.003172905104933843</v>
       </c>
       <c r="H2" t="n">
-        <v>1.644329117311827e-11</v>
+        <v>0.003988342141515222</v>
       </c>
       <c r="I2" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0.0006952802747612896</v>
       </c>
       <c r="J2" t="n">
-        <v>5.892413446062505e-09</v>
+        <v>0.01638296781455018</v>
       </c>
     </row>
     <row r="3">
@@ -1241,31 +1241,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.59472476627343e-14</v>
+        <v>0.002097018750532698</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.565780118568561e-05</v>
+        <v>0.02957323853369753</v>
       </c>
       <c r="E3" t="n">
-        <v>1.9007104556934e-08</v>
+        <v>0.01929193598628043</v>
       </c>
       <c r="F3" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0.000823113484367255</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1066066508322394</v>
+        <v>0.2005357013888658</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4169541963638517</v>
+        <v>0.3555178985048615</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01637583966388645</v>
+        <v>0.223000704671779</v>
       </c>
       <c r="J3" t="n">
-        <v>8.393286066166183e-14</v>
+        <v>0.0006251772513028442</v>
       </c>
     </row>
     <row r="4">
@@ -1275,31 +1275,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.542344443971615e-11</v>
+        <v>0.004743526100567941</v>
       </c>
       <c r="C4" t="n">
-        <v>2.565780118568561e-05</v>
+        <v>0.02957323853369753</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.17566308710515e-06</v>
+        <v>0.04081448025316758</v>
       </c>
       <c r="F4" t="n">
-        <v>1.363575918844617e-12</v>
+        <v>0.002218914254807469</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009679228919144522</v>
+        <v>0.1195518541354652</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001752711010382768</v>
+        <v>0.0857381227163625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.118899015755825</v>
+        <v>0.3502234558708817</v>
       </c>
       <c r="J4" t="n">
-        <v>1.946569014088517e-05</v>
+        <v>0.0327880517627599</v>
       </c>
     </row>
     <row r="5">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8170631409890792</v>
+        <v>0.9130504277383529</v>
       </c>
       <c r="C5" t="n">
-        <v>1.9007104556934e-08</v>
+        <v>0.01929193598628043</v>
       </c>
       <c r="D5" t="n">
-        <v>1.17566308710515e-06</v>
+        <v>0.04081448025316758</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9680938117265776</v>
+        <v>0.9863562133347268</v>
       </c>
       <c r="G5" t="n">
-        <v>3.769662868524648e-07</v>
+        <v>0.02737605755675454</v>
       </c>
       <c r="H5" t="n">
-        <v>3.504243262231199e-07</v>
+        <v>0.02861187543977062</v>
       </c>
       <c r="I5" t="n">
-        <v>8.63048124077892e-08</v>
+        <v>0.01770966400219565</v>
       </c>
       <c r="J5" t="n">
-        <v>7.72897789360627e-05</v>
+        <v>0.09128791642795719</v>
       </c>
     </row>
     <row r="6">
@@ -1343,31 +1343,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.751141612819944</v>
+        <v>0.8917294934277238</v>
       </c>
       <c r="C6" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0.000823113484367255</v>
       </c>
       <c r="D6" t="n">
-        <v>1.363575918844617e-12</v>
+        <v>0.002218914254807469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9680938117265776</v>
+        <v>0.9863562133347268</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4.426237154575574e-12</v>
+        <v>0.002240944158671043</v>
       </c>
       <c r="H6" t="n">
-        <v>3.064881681780207e-12</v>
+        <v>0.002427679187583021</v>
       </c>
       <c r="I6" t="n">
-        <v>1.007927075136195e-11</v>
+        <v>0.002559704324455181</v>
       </c>
       <c r="J6" t="n">
-        <v>1.754285605670702e-11</v>
+        <v>0.004861864736348087</v>
       </c>
     </row>
     <row r="7">
@@ -1377,31 +1377,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.768630349071827e-12</v>
+        <v>0.003172905104933843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1066066508322394</v>
+        <v>0.2005357013888658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009679228919144522</v>
+        <v>0.1195518541354652</v>
       </c>
       <c r="E7" t="n">
-        <v>3.769662868524648e-07</v>
+        <v>0.02737605755675454</v>
       </c>
       <c r="F7" t="n">
-        <v>4.426237154575574e-12</v>
+        <v>0.002240944158671043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06663083745837639</v>
+        <v>0.3219462813494158</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4023948912687643</v>
+        <v>0.5880646422052729</v>
       </c>
       <c r="J7" t="n">
-        <v>6.943038810547364e-09</v>
+        <v>0.002932945703924883</v>
       </c>
     </row>
     <row r="8">
@@ -1411,31 +1411,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.644329117311827e-11</v>
+        <v>0.003988342141515222</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4169541963638517</v>
+        <v>0.3555178985048615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001752711010382768</v>
+        <v>0.0857381227163625</v>
       </c>
       <c r="E8" t="n">
-        <v>3.504243262231199e-07</v>
+        <v>0.02861187543977062</v>
       </c>
       <c r="F8" t="n">
-        <v>3.064881681780207e-12</v>
+        <v>0.002427679187583021</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06663083745837639</v>
+        <v>0.3219462813494158</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1580547617992396</v>
+        <v>0.3792712059915497</v>
       </c>
       <c r="J8" t="n">
-        <v>3.078013843804683e-09</v>
+        <v>0.003034218204464256</v>
       </c>
     </row>
     <row r="9">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0.0006952802747612896</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01637583966388645</v>
+        <v>0.223000704671779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.118899015755825</v>
+        <v>0.3502234558708817</v>
       </c>
       <c r="E9" t="n">
-        <v>8.63048124077892e-08</v>
+        <v>0.01770966400219565</v>
       </c>
       <c r="F9" t="n">
-        <v>1.007927075136195e-11</v>
+        <v>0.002559704324455181</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4023948912687643</v>
+        <v>0.5880646422052729</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1580547617992396</v>
+        <v>0.3792712059915497</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.248792048626825e-05</v>
+        <v>0.0664544017438875</v>
       </c>
     </row>
     <row r="10">
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.892413446062505e-09</v>
+        <v>0.01638296781455018</v>
       </c>
       <c r="C10" t="n">
-        <v>8.393286066166183e-14</v>
+        <v>0.0006251772513028442</v>
       </c>
       <c r="D10" t="n">
-        <v>1.946569014088517e-05</v>
+        <v>0.0327880517627599</v>
       </c>
       <c r="E10" t="n">
-        <v>7.72897789360627e-05</v>
+        <v>0.09128791642795719</v>
       </c>
       <c r="F10" t="n">
-        <v>1.754285605670702e-11</v>
+        <v>0.004861864736348087</v>
       </c>
       <c r="G10" t="n">
-        <v>6.943038810547364e-09</v>
+        <v>0.002932945703924883</v>
       </c>
       <c r="H10" t="n">
-        <v>3.078013843804683e-09</v>
+        <v>0.003034218204464256</v>
       </c>
       <c r="I10" t="n">
-        <v>3.248792048626825e-05</v>
+        <v>0.0664544017438875</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1582,28 +1582,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>16.25447069083802</v>
+        <v>7.083283308482033</v>
       </c>
       <c r="D2" t="n">
-        <v>11.60464208527638</v>
+        <v>5.679458912127445</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2390224313918523</v>
+        <v>-0.1162589752162882</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3278594953930771</v>
+        <v>-0.144992218631827</v>
       </c>
       <c r="G2" t="n">
-        <v>12.7672613192194</v>
+        <v>6.338157550730909</v>
       </c>
       <c r="H2" t="n">
-        <v>12.44074291344945</v>
+        <v>5.956120129563035</v>
       </c>
       <c r="I2" t="n">
-        <v>15.7964274735452</v>
+        <v>9.464221551842021</v>
       </c>
       <c r="J2" t="n">
-        <v>9.146324092193051</v>
+        <v>3.981327185483624</v>
       </c>
     </row>
     <row r="3">
@@ -1613,31 +1613,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.25447069083802</v>
+        <v>-7.083283308482033</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.354525557893302</v>
+        <v>-3.312931623975139</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.564407038002054</v>
+        <v>-3.788612492765368</v>
       </c>
       <c r="F3" t="n">
-        <v>-20.188784873963</v>
+        <v>-9.058396733432964</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.715535097353109</v>
+        <v>-1.530940715526004</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8443835924701882</v>
+        <v>-1.043770623842952</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.645599827368903</v>
+        <v>-1.441086070738292</v>
       </c>
       <c r="J3" t="n">
-        <v>-16.07009643581738</v>
+        <v>-9.728360474474201</v>
       </c>
     </row>
     <row r="4">
@@ -1647,31 +1647,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-11.60464208527638</v>
+        <v>-5.679458912127445</v>
       </c>
       <c r="C4" t="n">
-        <v>5.354525557893302</v>
+        <v>3.312931623975139</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.663563830704345</v>
+        <v>-2.978126341872117</v>
       </c>
       <c r="F4" t="n">
-        <v>-14.06158051816379</v>
+        <v>-6.977348038010106</v>
       </c>
       <c r="G4" t="n">
-        <v>2.882186467581386</v>
+        <v>1.974499871279546</v>
       </c>
       <c r="H4" t="n">
-        <v>3.615197189375274</v>
+        <v>2.269889334820201</v>
       </c>
       <c r="I4" t="n">
-        <v>1.654676052044802</v>
+        <v>1.056747819358406</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.469203923751026</v>
+        <v>-3.203602407340061</v>
       </c>
     </row>
     <row r="5">
@@ -1681,31 +1681,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2390224313918523</v>
+        <v>0.1162589752162882</v>
       </c>
       <c r="C5" t="n">
-        <v>8.564407038002054</v>
+        <v>3.788612492765368</v>
       </c>
       <c r="D5" t="n">
-        <v>6.663563830704345</v>
+        <v>2.978126341872117</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04130657229242249</v>
+        <v>0.01819296994154352</v>
       </c>
       <c r="G5" t="n">
-        <v>7.167442208538424</v>
+        <v>3.396079502860692</v>
       </c>
       <c r="H5" t="n">
-        <v>7.200259950584341</v>
+        <v>3.348380570779105</v>
       </c>
       <c r="I5" t="n">
-        <v>7.842337441516031</v>
+        <v>3.888729763883627</v>
       </c>
       <c r="J5" t="n">
-        <v>4.899829143648584</v>
+        <v>2.21332194743845</v>
       </c>
     </row>
     <row r="6">
@@ -1715,31 +1715,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3278594953930771</v>
+        <v>0.144992218631827</v>
       </c>
       <c r="C6" t="n">
-        <v>20.188784873963</v>
+        <v>9.058396733432964</v>
       </c>
       <c r="D6" t="n">
-        <v>14.06158051816379</v>
+        <v>6.977348038010106</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04130657229242249</v>
+        <v>-0.01819296994154352</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13.27599559837428</v>
+        <v>6.958968355485228</v>
       </c>
       <c r="H6" t="n">
-        <v>13.5174161435858</v>
+        <v>6.811612805996516</v>
       </c>
       <c r="I6" t="n">
-        <v>12.74745013734283</v>
+        <v>6.715615282037597</v>
       </c>
       <c r="J6" t="n">
-        <v>12.40059589841578</v>
+        <v>5.641016868496634</v>
       </c>
     </row>
     <row r="7">
@@ -1749,31 +1749,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.7672613192194</v>
+        <v>-6.338157550730909</v>
       </c>
       <c r="C7" t="n">
-        <v>1.715535097353109</v>
+        <v>1.530940715526004</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.882186467581386</v>
+        <v>-1.974499871279546</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.167442208538424</v>
+        <v>-3.396079502860692</v>
       </c>
       <c r="F7" t="n">
-        <v>-13.27599559837428</v>
+        <v>-6.958968355485228</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.966818192475095</v>
+        <v>1.129199339886732</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8714598937381334</v>
+        <v>-0.5881017630580124</v>
       </c>
       <c r="J7" t="n">
-        <v>-9.06350920139392</v>
+        <v>-6.474208885539672</v>
       </c>
     </row>
     <row r="8">
@@ -1783,31 +1783,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.44074291344945</v>
+        <v>-5.956120129563035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8443835924701882</v>
+        <v>1.043770623842952</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.615197189375274</v>
+        <v>-2.269889334820201</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.200259950584341</v>
+        <v>-3.348380570779105</v>
       </c>
       <c r="F8" t="n">
-        <v>-13.5174161435858</v>
+        <v>-6.811612805996516</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.966818192475095</v>
+        <v>-1.129199339886732</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.490504925446222</v>
+        <v>-0.9875688298325775</v>
       </c>
       <c r="J8" t="n">
-        <v>-9.47840191955892</v>
+        <v>-6.415177338567293</v>
       </c>
     </row>
     <row r="9">
@@ -1817,31 +1817,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-15.7964274735452</v>
+        <v>-9.464221551842021</v>
       </c>
       <c r="C9" t="n">
-        <v>2.645599827368903</v>
+        <v>1.441086070738292</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.654676052044802</v>
+        <v>-1.056747819358406</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.842337441516031</v>
+        <v>-3.888729763883627</v>
       </c>
       <c r="F9" t="n">
-        <v>-12.74745013734283</v>
+        <v>-6.715615282037597</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8714598937381334</v>
+        <v>0.5881017630580124</v>
       </c>
       <c r="H9" t="n">
-        <v>1.490504925446222</v>
+        <v>0.9875688298325775</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-5.256814551571564</v>
+        <v>-2.504386448566041</v>
       </c>
     </row>
     <row r="10">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.146324092193051</v>
+        <v>-3.981327185483624</v>
       </c>
       <c r="C10" t="n">
-        <v>16.07009643581738</v>
+        <v>9.728360474474201</v>
       </c>
       <c r="D10" t="n">
-        <v>5.469203923751026</v>
+        <v>3.203602407340061</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.899829143648584</v>
+        <v>-2.21332194743845</v>
       </c>
       <c r="F10" t="n">
-        <v>-12.40059589841578</v>
+        <v>-5.641016868496634</v>
       </c>
       <c r="G10" t="n">
-        <v>9.06350920139392</v>
+        <v>6.474208885539672</v>
       </c>
       <c r="H10" t="n">
-        <v>9.47840191955892</v>
+        <v>6.415177338567293</v>
       </c>
       <c r="I10" t="n">
-        <v>5.256814551571564</v>
+        <v>2.504386448566041</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/Analisis/Ranking_Estadistico_HLN_DM.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/Analisis/Ranking_Estadistico_HLN_DM.xlsx
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="H2" t="n">
         <v>0.002018666349493251</v>
@@ -551,29 +551,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002343166998705213</v>
+        <v>0.002862421887232199</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001773557864384127</v>
+        <v>0.002737018741784631</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -601,10 +601,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01088643503280608</v>
+        <v>0.00233372413512631</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01118631828981691</v>
+        <v>0.001695838571145866</v>
       </c>
     </row>
     <row r="6">
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002729303042345392</v>
+        <v>0.002647994599202048</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002276929651970951</v>
+        <v>0.002238418271929144</v>
       </c>
     </row>
     <row r="8">
@@ -675,29 +675,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01074678080948211</v>
+        <v>0.01088643503280608</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01054280575249088</v>
+        <v>0.01118631828981691</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01085869601634492</v>
+        <v>0.01074678080948211</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01107257398892365</v>
+        <v>0.01054280575249088</v>
       </c>
     </row>
     <row r="10">
@@ -737,29 +737,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>AREPD</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005726608455807441</v>
+        <v>0.01085869601634492</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005666169253838035</v>
+        <v>0.01107257398892365</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1222,16 +1222,16 @@
         <v>0.8917294934277238</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003172905104933843</v>
+        <v>0.003174807860589546</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003988342141515222</v>
+        <v>0.004079998624447523</v>
       </c>
       <c r="I2" t="n">
         <v>0.0006952802747612896</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01638296781455018</v>
+        <v>0.004439147514800013</v>
       </c>
     </row>
     <row r="3">
@@ -1256,16 +1256,16 @@
         <v>0.000823113484367255</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2005357013888658</v>
+        <v>0.2527363784636867</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3555178985048615</v>
+        <v>0.3711699617564306</v>
       </c>
       <c r="I3" t="n">
         <v>0.223000704671779</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006251772513028442</v>
+        <v>0.02644120338402178</v>
       </c>
     </row>
     <row r="4">
@@ -1290,16 +1290,16 @@
         <v>0.002218914254807469</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1195518541354652</v>
+        <v>0.1154261312600404</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0857381227163625</v>
+        <v>0.08419339035355633</v>
       </c>
       <c r="I4" t="n">
         <v>0.3502234558708817</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0327880517627599</v>
+        <v>0.1329130947100663</v>
       </c>
     </row>
     <row r="5">
@@ -1324,16 +1324,16 @@
         <v>0.9863562133347268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02737605755675454</v>
+        <v>0.02716039587005836</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02861187543977062</v>
+        <v>0.02884605071504298</v>
       </c>
       <c r="I5" t="n">
         <v>0.01770966400219565</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09128791642795719</v>
+        <v>0.02938501293574203</v>
       </c>
     </row>
     <row r="6">
@@ -1358,16 +1358,16 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002240944158671043</v>
+        <v>0.002377401658132605</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002427679187583021</v>
+        <v>0.002445029713906255</v>
       </c>
       <c r="I6" t="n">
         <v>0.002559704324455181</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004861864736348087</v>
+        <v>0.001171142210408815</v>
       </c>
     </row>
     <row r="7">
@@ -1377,31 +1377,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003172905104933843</v>
+        <v>0.003174807860589546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2005357013888658</v>
+        <v>0.2527363784636867</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1195518541354652</v>
+        <v>0.1154261312600404</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02737605755675454</v>
+        <v>0.02716039587005836</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002240944158671043</v>
+        <v>0.002377401658132605</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3219462813494158</v>
+        <v>0.388923800022529</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5880646422052729</v>
+        <v>0.5237353623974466</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002932945703924883</v>
+        <v>0.7323148542116584</v>
       </c>
     </row>
     <row r="8">
@@ -1411,31 +1411,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003988342141515222</v>
+        <v>0.004079998624447523</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3555178985048615</v>
+        <v>0.3711699617564306</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0857381227163625</v>
+        <v>0.08419339035355633</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02861187543977062</v>
+        <v>0.02884605071504298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002427679187583021</v>
+        <v>0.002445029713906255</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3219462813494158</v>
+        <v>0.388923800022529</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3792712059915497</v>
+        <v>0.381143703974532</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003034218204464256</v>
+        <v>0.2927194695972357</v>
       </c>
     </row>
     <row r="9">
@@ -1460,16 +1460,16 @@
         <v>0.002559704324455181</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5880646422052729</v>
+        <v>0.5237353623974466</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3792712059915497</v>
+        <v>0.381143703974532</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0664544017438875</v>
+        <v>0.7566060207781393</v>
       </c>
     </row>
     <row r="10">
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01638296781455018</v>
+        <v>0.004439147514800013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006251772513028442</v>
+        <v>0.02644120338402178</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0327880517627599</v>
+        <v>0.1329130947100663</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09128791642795719</v>
+        <v>0.02938501293574203</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004861864736348087</v>
+        <v>0.001171142210408815</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002932945703924883</v>
+        <v>0.7323148542116584</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003034218204464256</v>
+        <v>0.2927194695972357</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0664544017438875</v>
+        <v>0.7566060207781393</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1594,16 +1594,16 @@
         <v>-0.144992218631827</v>
       </c>
       <c r="G2" t="n">
-        <v>6.338157550730909</v>
+        <v>6.337129806051893</v>
       </c>
       <c r="H2" t="n">
-        <v>5.956120129563035</v>
+        <v>5.919247596615206</v>
       </c>
       <c r="I2" t="n">
         <v>9.464221551842021</v>
       </c>
       <c r="J2" t="n">
-        <v>3.981327185483624</v>
+        <v>5.783987257324997</v>
       </c>
     </row>
     <row r="3">
@@ -1628,16 +1628,16 @@
         <v>-9.058396733432964</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.530940715526004</v>
+        <v>-1.335180262293603</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.043770623842952</v>
+        <v>-1.006381502477831</v>
       </c>
       <c r="I3" t="n">
         <v>-1.441086070738292</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.728360474474201</v>
+        <v>-3.433891055953135</v>
       </c>
     </row>
     <row r="4">
@@ -1662,16 +1662,16 @@
         <v>-6.977348038010106</v>
       </c>
       <c r="G4" t="n">
-        <v>1.974499871279546</v>
+        <v>2.005224285639492</v>
       </c>
       <c r="H4" t="n">
-        <v>2.269889334820201</v>
+        <v>2.286367445133264</v>
       </c>
       <c r="I4" t="n">
         <v>1.056747819358406</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.203602407340061</v>
+        <v>1.882393605666372</v>
       </c>
     </row>
     <row r="5">
@@ -1696,16 +1696,16 @@
         <v>0.01819296994154352</v>
       </c>
       <c r="G5" t="n">
-        <v>3.396079502860692</v>
+        <v>3.40466490293299</v>
       </c>
       <c r="H5" t="n">
-        <v>3.348380570779105</v>
+        <v>3.339617146343697</v>
       </c>
       <c r="I5" t="n">
         <v>3.888729763883627</v>
       </c>
       <c r="J5" t="n">
-        <v>2.21332194743845</v>
+        <v>3.319763837016656</v>
       </c>
     </row>
     <row r="6">
@@ -1730,16 +1730,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.958968355485228</v>
+        <v>6.849876913593199</v>
       </c>
       <c r="H6" t="n">
-        <v>6.811612805996516</v>
+        <v>6.798634165467775</v>
       </c>
       <c r="I6" t="n">
         <v>6.715615282037597</v>
       </c>
       <c r="J6" t="n">
-        <v>5.641016868496634</v>
+        <v>8.261664674929261</v>
       </c>
     </row>
     <row r="7">
@@ -1749,31 +1749,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.338157550730909</v>
+        <v>-6.337129806051893</v>
       </c>
       <c r="C7" t="n">
-        <v>1.530940715526004</v>
+        <v>1.335180262293603</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.974499871279546</v>
+        <v>-2.005224285639492</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.396079502860692</v>
+        <v>-3.40466490293299</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.958968355485228</v>
+        <v>-6.849876913593199</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.129199339886732</v>
+        <v>0.9656024611261345</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5881017630580124</v>
+        <v>-0.6978033078871785</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.474208885539672</v>
+        <v>-0.366848143389047</v>
       </c>
     </row>
     <row r="8">
@@ -1783,31 +1783,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.956120129563035</v>
+        <v>-5.919247596615206</v>
       </c>
       <c r="C8" t="n">
-        <v>1.043770623842952</v>
+        <v>1.006381502477831</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.269889334820201</v>
+        <v>-2.286367445133264</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.348380570779105</v>
+        <v>-3.339617146343697</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.811612805996516</v>
+        <v>-6.798634165467775</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.129199339886732</v>
+        <v>-0.9656024611261345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9875688298325775</v>
+        <v>-0.9832701938040602</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.415177338567293</v>
+        <v>-1.210506061369819</v>
       </c>
     </row>
     <row r="9">
@@ -1832,16 +1832,16 @@
         <v>-6.715615282037597</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5881017630580124</v>
+        <v>0.6978033078871785</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9875688298325775</v>
+        <v>0.9832701938040602</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.504386448566041</v>
+        <v>0.3319302933904444</v>
       </c>
     </row>
     <row r="10">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.981327185483624</v>
+        <v>-5.783987257324997</v>
       </c>
       <c r="C10" t="n">
-        <v>9.728360474474201</v>
+        <v>3.433891055953135</v>
       </c>
       <c r="D10" t="n">
-        <v>3.203602407340061</v>
+        <v>-1.882393605666372</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.21332194743845</v>
+        <v>-3.319763837016656</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.641016868496634</v>
+        <v>-8.261664674929261</v>
       </c>
       <c r="G10" t="n">
-        <v>6.474208885539672</v>
+        <v>0.366848143389047</v>
       </c>
       <c r="H10" t="n">
-        <v>6.415177338567293</v>
+        <v>1.210506061369819</v>
       </c>
       <c r="I10" t="n">
-        <v>2.504386448566041</v>
+        <v>-0.3319302933904444</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/Analisis/Ranking_Estadistico_HLN_DM.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/Analisis/Ranking_Estadistico_HLN_DM.xlsx
@@ -570,10 +570,10 @@
         <v>0.125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002862421887232199</v>
+        <v>0.002542775759326063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002737018741784631</v>
+        <v>0.002376293918721295</v>
       </c>
     </row>
     <row r="5">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01088643503280608</v>
+        <v>0.003817475084992743</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01118631828981691</v>
+        <v>0.002893976026713732</v>
       </c>
     </row>
     <row r="9">
@@ -1216,7 +1216,7 @@
         <v>0.004743526100567941</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9130504277383529</v>
+        <v>0.003295502448879439</v>
       </c>
       <c r="F2" t="n">
         <v>0.8917294934277238</v>
@@ -1231,7 +1231,7 @@
         <v>0.0006952802747612896</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004439147514800013</v>
+        <v>0.00315039942074824</v>
       </c>
     </row>
     <row r="3">
@@ -1250,7 +1250,7 @@
         <v>0.02957323853369753</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01929193598628043</v>
+        <v>0.123675267522446</v>
       </c>
       <c r="F3" t="n">
         <v>0.000823113484367255</v>
@@ -1265,7 +1265,7 @@
         <v>0.223000704671779</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02644120338402178</v>
+        <v>0.07046843728652985</v>
       </c>
     </row>
     <row r="4">
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04081448025316758</v>
+        <v>0.3889653978921017</v>
       </c>
       <c r="F4" t="n">
         <v>0.002218914254807469</v>
@@ -1299,7 +1299,7 @@
         <v>0.3502234558708817</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1329130947100663</v>
+        <v>0.05219548808690333</v>
       </c>
     </row>
     <row r="5">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9130504277383529</v>
+        <v>0.003295502448879439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01929193598628043</v>
+        <v>0.123675267522446</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04081448025316758</v>
+        <v>0.3889653978921017</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9863562133347268</v>
+        <v>0.00288943787630247</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02716039587005836</v>
+        <v>0.30439985734797</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02884605071504298</v>
+        <v>0.2359497530506454</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01770966400219565</v>
+        <v>0.5249598689705572</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02938501293574203</v>
+        <v>0.2365482656164806</v>
       </c>
     </row>
     <row r="6">
@@ -1352,7 +1352,7 @@
         <v>0.002218914254807469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9863562133347268</v>
+        <v>0.00288943787630247</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>0.002559704324455181</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001171142210408815</v>
+        <v>0.0008798021143592294</v>
       </c>
     </row>
     <row r="7">
@@ -1386,7 +1386,7 @@
         <v>0.1154261312600404</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02716039587005836</v>
+        <v>0.30439985734797</v>
       </c>
       <c r="F7" t="n">
         <v>0.002377401658132605</v>
@@ -1401,7 +1401,7 @@
         <v>0.5237353623974466</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7323148542116584</v>
+        <v>0.8475117616320325</v>
       </c>
     </row>
     <row r="8">
@@ -1420,7 +1420,7 @@
         <v>0.08419339035355633</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02884605071504298</v>
+        <v>0.2359497530506454</v>
       </c>
       <c r="F8" t="n">
         <v>0.002445029713906255</v>
@@ -1435,7 +1435,7 @@
         <v>0.381143703974532</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2927194695972357</v>
+        <v>0.6399236992372721</v>
       </c>
     </row>
     <row r="9">
@@ -1454,7 +1454,7 @@
         <v>0.3502234558708817</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01770966400219565</v>
+        <v>0.5249598689705572</v>
       </c>
       <c r="F9" t="n">
         <v>0.002559704324455181</v>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7566060207781393</v>
+        <v>0.5314153404758986</v>
       </c>
     </row>
     <row r="10">
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004439147514800013</v>
+        <v>0.00315039942074824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02644120338402178</v>
+        <v>0.07046843728652985</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1329130947100663</v>
+        <v>0.05219548808690333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02938501293574203</v>
+        <v>0.2365482656164806</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001171142210408815</v>
+        <v>0.0008798021143592294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7323148542116584</v>
+        <v>0.8475117616320325</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2927194695972357</v>
+        <v>0.6399236992372721</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7566060207781393</v>
+        <v>0.5314153404758986</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>5.679458912127445</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1162589752162882</v>
+        <v>6.273444151869245</v>
       </c>
       <c r="F2" t="n">
         <v>-0.144992218631827</v>
@@ -1603,7 +1603,7 @@
         <v>9.464221551842021</v>
       </c>
       <c r="J2" t="n">
-        <v>5.783987257324997</v>
+        <v>6.350371468051042</v>
       </c>
     </row>
     <row r="3">
@@ -1622,7 +1622,7 @@
         <v>-3.312931623975139</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.788612492765368</v>
+        <v>-1.944928082375265</v>
       </c>
       <c r="F3" t="n">
         <v>-9.058396733432964</v>
@@ -1637,7 +1637,7 @@
         <v>-1.441086070738292</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.433891055953135</v>
+        <v>-2.449694784569639</v>
       </c>
     </row>
     <row r="4">
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.978126341872117</v>
+        <v>0.9655088164592457</v>
       </c>
       <c r="F4" t="n">
         <v>-6.977348038010106</v>
@@ -1671,7 +1671,7 @@
         <v>1.056747819358406</v>
       </c>
       <c r="J4" t="n">
-        <v>1.882393605666372</v>
+        <v>2.734589956512321</v>
       </c>
     </row>
     <row r="5">
@@ -1681,31 +1681,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1162589752162882</v>
+        <v>-6.273444151869245</v>
       </c>
       <c r="C5" t="n">
-        <v>3.788612492765368</v>
+        <v>1.944928082375265</v>
       </c>
       <c r="D5" t="n">
-        <v>2.978126341872117</v>
+        <v>-0.9655088164592457</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01819296994154352</v>
+        <v>-6.500345077603687</v>
       </c>
       <c r="G5" t="n">
-        <v>3.40466490293299</v>
+        <v>1.177142446357576</v>
       </c>
       <c r="H5" t="n">
-        <v>3.339617146343697</v>
+        <v>1.393344613414188</v>
       </c>
       <c r="I5" t="n">
-        <v>3.888729763883627</v>
+        <v>0.6956293248699703</v>
       </c>
       <c r="J5" t="n">
-        <v>3.319763837016656</v>
+        <v>1.391201525421976</v>
       </c>
     </row>
     <row r="6">
@@ -1724,7 +1724,7 @@
         <v>6.977348038010106</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01819296994154352</v>
+        <v>6.500345077603687</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>6.715615282037597</v>
       </c>
       <c r="J6" t="n">
-        <v>8.261664674929261</v>
+        <v>8.902724452679363</v>
       </c>
     </row>
     <row r="7">
@@ -1758,7 +1758,7 @@
         <v>-2.005224285639492</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.40466490293299</v>
+        <v>-1.177142446357576</v>
       </c>
       <c r="F7" t="n">
         <v>-6.849876913593199</v>
@@ -1773,7 +1773,7 @@
         <v>-0.6978033078871785</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.366848143389047</v>
+        <v>0.2050953498393789</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         <v>-2.286367445133264</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.339617146343697</v>
+        <v>-1.393344613414188</v>
       </c>
       <c r="F8" t="n">
         <v>-6.798634165467775</v>
@@ -1807,7 +1807,7 @@
         <v>-0.9832701938040602</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.210506061369819</v>
+        <v>-0.5052931892951553</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1826,7 @@
         <v>-1.056747819358406</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.888729763883627</v>
+        <v>-0.6956293248699703</v>
       </c>
       <c r="F9" t="n">
         <v>-6.715615282037597</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3319302933904444</v>
+        <v>0.6842283227823049</v>
       </c>
     </row>
     <row r="10">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.783987257324997</v>
+        <v>-6.350371468051042</v>
       </c>
       <c r="C10" t="n">
-        <v>3.433891055953135</v>
+        <v>2.449694784569639</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.882393605666372</v>
+        <v>-2.734589956512321</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.319763837016656</v>
+        <v>-1.391201525421976</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.261664674929261</v>
+        <v>-8.902724452679363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.366848143389047</v>
+        <v>-0.2050953498393789</v>
       </c>
       <c r="H10" t="n">
-        <v>1.210506061369819</v>
+        <v>0.5052931892951553</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3319302933904444</v>
+        <v>-0.6842283227823049</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>

--- a/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/Analisis/Ranking_Estadistico_HLN_DM.xlsx
+++ b/codigo_final_organizado/Aplicaciones/Aplicaciones_puras/resultados_traffic/Analisis/Ranking_Estadistico_HLN_DM.xlsx
@@ -570,10 +570,10 @@
         <v>0.125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002542775759326063</v>
+        <v>0.002831816091291712</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002376293918721295</v>
+        <v>0.002727594969434134</v>
       </c>
     </row>
     <row r="5">
@@ -1231,7 +1231,7 @@
         <v>0.0006952802747612896</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00315039942074824</v>
+        <v>0.004062807223428999</v>
       </c>
     </row>
     <row r="3">
@@ -1265,7 +1265,7 @@
         <v>0.223000704671779</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07046843728652985</v>
+        <v>0.01782512029759253</v>
       </c>
     </row>
     <row r="4">
@@ -1299,7 +1299,7 @@
         <v>0.3502234558708817</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05219548808690333</v>
+        <v>0.1314282200161445</v>
       </c>
     </row>
     <row r="5">
@@ -1333,7 +1333,7 @@
         <v>0.5249598689705572</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2365482656164806</v>
+        <v>0.3891130270286924</v>
       </c>
     </row>
     <row r="6">
@@ -1367,7 +1367,7 @@
         <v>0.002559704324455181</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0008798021143592294</v>
+        <v>0.001193204074426912</v>
       </c>
     </row>
     <row r="7">
@@ -1401,7 +1401,7 @@
         <v>0.5237353623974466</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8475117616320325</v>
+        <v>0.7386203083310265</v>
       </c>
     </row>
     <row r="8">
@@ -1435,7 +1435,7 @@
         <v>0.381143703974532</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6399236992372721</v>
+        <v>0.2585288941249697</v>
       </c>
     </row>
     <row r="9">
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5314153404758986</v>
+        <v>0.725692793863784</v>
       </c>
     </row>
     <row r="10">
@@ -1479,28 +1479,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00315039942074824</v>
+        <v>0.004062807223428999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07046843728652985</v>
+        <v>0.01782512029759253</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05219548808690333</v>
+        <v>0.1314282200161445</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2365482656164806</v>
+        <v>0.3891130270286924</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008798021143592294</v>
+        <v>0.001193204074426912</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8475117616320325</v>
+        <v>0.7386203083310265</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6399236992372721</v>
+        <v>0.2585288941249697</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5314153404758986</v>
+        <v>0.725692793863784</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1603,7 +1603,7 @@
         <v>9.464221551842021</v>
       </c>
       <c r="J2" t="n">
-        <v>6.350371468051042</v>
+        <v>5.926085606338424</v>
       </c>
     </row>
     <row r="3">
@@ -1637,7 +1637,7 @@
         <v>-1.441086070738292</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.449694784569639</v>
+        <v>-3.881067474556439</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1671,7 @@
         <v>1.056747819358406</v>
       </c>
       <c r="J4" t="n">
-        <v>2.734589956512321</v>
+        <v>1.89212176195798</v>
       </c>
     </row>
     <row r="5">
@@ -1705,7 +1705,7 @@
         <v>0.6956293248699703</v>
       </c>
       <c r="J5" t="n">
-        <v>1.391201525421976</v>
+        <v>0.9651765446326452</v>
       </c>
     </row>
     <row r="6">
@@ -1739,7 +1739,7 @@
         <v>6.715615282037597</v>
       </c>
       <c r="J6" t="n">
-        <v>8.902724452679363</v>
+        <v>8.221339224864986</v>
       </c>
     </row>
     <row r="7">
@@ -1773,7 +1773,7 @@
         <v>-0.6978033078871785</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2050953498393789</v>
+        <v>-0.3577340912120377</v>
       </c>
     </row>
     <row r="8">
@@ -1807,7 +1807,7 @@
         <v>-0.9832701938040602</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.5052931892951553</v>
+        <v>-1.315985968352106</v>
       </c>
     </row>
     <row r="9">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6842283227823049</v>
+        <v>0.3764596812565981</v>
       </c>
     </row>
     <row r="10">
@@ -1851,28 +1851,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.350371468051042</v>
+        <v>-5.926085606338424</v>
       </c>
       <c r="C10" t="n">
-        <v>2.449694784569639</v>
+        <v>3.881067474556439</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.734589956512321</v>
+        <v>-1.89212176195798</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.391201525421976</v>
+        <v>-0.9651765446326452</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.902724452679363</v>
+        <v>-8.221339224864986</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2050953498393789</v>
+        <v>0.3577340912120377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5052931892951553</v>
+        <v>1.315985968352106</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6842283227823049</v>
+        <v>-0.3764596812565981</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
